--- a/Territorios URLS.xlsx
+++ b/Territorios URLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Territorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCF7F8-E495-4C32-8F04-667110EAC6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5EEF2-F247-4113-8F73-5861E43011D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6F239E1A-EA7B-4F6A-B7CF-38189949165A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>URL</t>
   </si>
@@ -91,6 +91,54 @@
   </si>
   <si>
     <t>https://www.google.com/maps/d/edit?mid=1z72p3Z1tzboCokFHhkFNG5FbPgsZNAM&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Rincon Los Naranjos</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1eJW__Ex9mElNjJte6Y4Py36dhDwBVyQ&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1iNQfrt8fEg-lZ3FMkmaR-rwMsU6CL4o&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Rincon Los Naranjos 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=12PxFNlOC_E2jbqOB_zlYmzSWiNAr3S4&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=158dWkiRBZ3Rn2SLxDFskkiCOc5vh8G8&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1YJ5ob_44AcmafEx97XCvOm1YSgOPfPU&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 3</t>
+  </si>
+  <si>
+    <t>Laureles de La Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1HMjyyaqG3u_wCAlGnzKEVboR9Im_RkA&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>La Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1To4Ov0RTZAwvwiSLJjke6ChjJICjbT8&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Lomas de la Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=12FnsNQOUFvgJKDylqHk1m12FeJ_mCt0&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 1</t>
   </si>
 </sst>
 </file>
@@ -149,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -159,9 +207,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -176,13 +221,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -207,15 +258,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:colOff>1028699</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:rowOff>733424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -244,8 +295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="342900"/>
-          <a:ext cx="723900" cy="723900"/>
+          <a:off x="7172324" y="352424"/>
+          <a:ext cx="714375" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -407,15 +458,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>314323</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:colOff>1085849</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
+      <xdr:rowOff>857251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -444,8 +495,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7181850" y="3552825"/>
-          <a:ext cx="695325" cy="695325"/>
+          <a:off x="7172323" y="3533775"/>
+          <a:ext cx="771526" cy="771526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,15 +508,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:colOff>1057274</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:rowOff>790574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -494,7 +545,357 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="4391025"/>
+          <a:off x="7181850" y="4381500"/>
+          <a:ext cx="733424" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>866775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D41D8C8-DDEF-4E5F-9A15-C2FABED2F29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="5295900"/>
+          <a:ext cx="742950" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>838199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1705D7D6-BF1A-406F-AB92-399CB4AE9B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="6115049"/>
+          <a:ext cx="771525" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267DCD83-A394-475E-BBC0-2BAD0FFB2ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7162801" y="7077076"/>
+          <a:ext cx="771524" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342897</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>838202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC1AA34-2731-464A-B593-999FC337AC2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200897" y="8048624"/>
+          <a:ext cx="714378" cy="714378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333373</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1057274</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F9FA8A-9670-4612-81FF-BB8A50647174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191373" y="8943974"/>
+          <a:ext cx="723901" cy="723901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8ABA5B-7C01-4710-9488-DEEA1E7BCB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="9867900"/>
+          <a:ext cx="742950" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FB6AB0-629B-4272-B6AC-A7498496A7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="10725150"/>
           <a:ext cx="762000" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -507,22 +908,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:colOff>1085851</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>962026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagen 17">
+        <xdr:cNvPr id="22" name="Imagen 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D41D8C8-DDEF-4E5F-9A15-C2FABED2F29F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95DF8B32-6BB3-4EB0-BA18-B44B94C97487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -531,7 +932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -544,8 +945,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153274" y="5257799"/>
-          <a:ext cx="742951" cy="742951"/>
+          <a:off x="7172325" y="11715750"/>
+          <a:ext cx="771526" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1095374</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD8FDC1-593D-4FFB-BF7E-18603B4D70C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="12620626"/>
+          <a:ext cx="771524" cy="771524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,35 +1305,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFECC83-444E-4A2D-8F92-570A1D5BD4E8}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -890,13 +1341,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>45673</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2"/>
@@ -905,13 +1356,13 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
         <v>45673</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -919,13 +1370,13 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
         <v>45673</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -933,13 +1384,13 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>45673</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -947,13 +1398,13 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>45673</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -961,13 +1412,13 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>45673</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -975,18 +1426,128 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>45673</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45677</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{EAD5DF18-A768-4E88-A670-82E68D370B91}"/>
@@ -996,9 +1557,17 @@
     <hyperlink ref="D5" r:id="rId5" xr:uid="{28F76EA4-810A-491E-9C19-4A37C8FEFABB}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{B5DBA8CF-F4D5-486C-858E-22D40ACBE25A}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{747A4520-449D-4B89-87C7-324A5ADA5E0B}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{C72A0A83-F7AB-4302-A62F-574AB5A032C3}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{4B59401B-5964-4AA6-BC76-9A5F792B9A6F}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{AEADE598-2BBB-469F-B5CE-4721FBB6848F}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{71A32234-EFCD-426C-8C81-98926DCF7B0D}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{D206A7E9-48D8-4B27-830F-2CF4FC5B460F}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{1B78AE2C-F1BC-4EDE-BBC5-D704FE9DECBB}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{EB24EC2A-64B6-4D2A-80FD-439BF87B81F3}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{528AAB08-13DB-4424-A603-8012E83B5F58}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/Territorios URLS.xlsx
+++ b/Territorios URLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Territorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E5EEF2-F247-4113-8F73-5861E43011D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32506E6C-E71D-4FF3-B880-B160CD805A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6F239E1A-EA7B-4F6A-B7CF-38189949165A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>URL</t>
   </si>
@@ -87,58 +87,64 @@
     <t>https://www.google.com/maps/d/edit?mid=1zjVBGT6DanVoaG3bIUjamjo5mrp2wck&amp;usp=sharing</t>
   </si>
   <si>
+    <t>https://www.google.com/maps/d/edit?mid=1z72p3Z1tzboCokFHhkFNG5FbPgsZNAM&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Rincon Los Naranjos</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1eJW__Ex9mElNjJte6Y4Py36dhDwBVyQ&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1iNQfrt8fEg-lZ3FMkmaR-rwMsU6CL4o&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Rincon Los Naranjos 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=12PxFNlOC_E2jbqOB_zlYmzSWiNAr3S4&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=158dWkiRBZ3Rn2SLxDFskkiCOc5vh8G8&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1YJ5ob_44AcmafEx97XCvOm1YSgOPfPU&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 3</t>
+  </si>
+  <si>
+    <t>Laureles de La Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1HMjyyaqG3u_wCAlGnzKEVboR9Im_RkA&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>La Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1To4Ov0RTZAwvwiSLJjke6ChjJICjbT8&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Lomas de la Selva</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=12FnsNQOUFvgJKDylqHk1m12FeJ_mCt0&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>Santa Cruz 1</t>
+  </si>
+  <si>
+    <t>Valle de los Naranjos</t>
+  </si>
+  <si>
     <t>Valladito</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/d/edit?mid=1z72p3Z1tzboCokFHhkFNG5FbPgsZNAM&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Rincon Los Naranjos</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=1eJW__Ex9mElNjJte6Y4Py36dhDwBVyQ&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=1iNQfrt8fEg-lZ3FMkmaR-rwMsU6CL4o&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Rincon Los Naranjos 2</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=12PxFNlOC_E2jbqOB_zlYmzSWiNAr3S4&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=158dWkiRBZ3Rn2SLxDFskkiCOc5vh8G8&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Santa Cruz 2</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=1YJ5ob_44AcmafEx97XCvOm1YSgOPfPU&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Santa Cruz 3</t>
-  </si>
-  <si>
-    <t>Laureles de La Selva</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=1HMjyyaqG3u_wCAlGnzKEVboR9Im_RkA&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>La Selva</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=1To4Ov0RTZAwvwiSLJjke6ChjJICjbT8&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Lomas de la Selva</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/d/edit?mid=12FnsNQOUFvgJKDylqHk1m12FeJ_mCt0&amp;usp=sharing</t>
-  </si>
-  <si>
-    <t>Santa Cruz 1</t>
+    <t>https://www.google.com/maps/d/edit?mid=1FP9DW2GTHERRnuxhJI_9w5VMlB7OL4s&amp;usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1305,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFECC83-444E-4A2D-8F92-570A1D5BD4E8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,13 +1433,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3">
         <v>45673</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,13 +1447,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>45677</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1455,13 +1461,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>45677</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,13 +1475,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3">
         <v>45677</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1483,13 +1489,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>45677</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1497,13 +1503,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3">
         <v>45677</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,13 +1517,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>45677</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,13 +1531,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>45677</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,13 +1545,27 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
         <v>45677</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45679</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1565,9 +1585,10 @@
     <hyperlink ref="D14" r:id="rId13" xr:uid="{1B78AE2C-F1BC-4EDE-BBC5-D704FE9DECBB}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{EB24EC2A-64B6-4D2A-80FD-439BF87B81F3}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{528AAB08-13DB-4424-A603-8012E83B5F58}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{33979DE2-9A9D-411F-A251-5B1E0CD75220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId16"/>
-  <drawing r:id="rId17"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/Territorios URLS.xlsx
+++ b/Territorios URLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Territorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32506E6C-E71D-4FF3-B880-B160CD805A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84539B5C-766F-4DCB-947D-892F92032C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6F239E1A-EA7B-4F6A-B7CF-38189949165A}"/>
   </bookViews>
@@ -1003,6 +1003,56 @@
         <a:xfrm>
           <a:off x="7181850" y="12620626"/>
           <a:ext cx="771524" cy="771524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>885825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E892867-9E9C-4AFA-9CFD-9DFA92C7F5F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172324" y="13573124"/>
+          <a:ext cx="828676" cy="828676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Territorios URLS.xlsx
+++ b/Territorios URLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Desktop\Territorios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84539B5C-766F-4DCB-947D-892F92032C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE6B7E-7BAD-44E7-92D0-4B7C9A02153D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{6F239E1A-EA7B-4F6A-B7CF-38189949165A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>URL</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>https://www.google.com/maps/d/edit?mid=1FP9DW2GTHERRnuxhJI_9w5VMlB7OL4s&amp;usp=sharing</t>
+  </si>
+  <si>
+    <t>San Bernardito</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/d/edit?mid=1HGd_1aS0tsDef-XtlniVkdlGAn-Q7lU&amp;usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1053,6 +1059,56 @@
         <a:xfrm>
           <a:off x="7172324" y="13573124"/>
           <a:ext cx="828676" cy="828676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A58C50-9A10-4EC2-9082-BB6397FA2AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="14525625"/>
+          <a:ext cx="800100" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFECC83-444E-4A2D-8F92-570A1D5BD4E8}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1616,6 +1672,20 @@
       </c>
       <c r="D17" s="11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45685</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1636,9 +1706,10 @@
     <hyperlink ref="D15" r:id="rId14" xr:uid="{EB24EC2A-64B6-4D2A-80FD-439BF87B81F3}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{528AAB08-13DB-4424-A603-8012E83B5F58}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{33979DE2-9A9D-411F-A251-5B1E0CD75220}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{28DEB330-3567-40E2-BA58-C47F938E8CDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId17"/>
-  <drawing r:id="rId18"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>